--- a/resources/clock_bom.xlsx
+++ b/resources/clock_bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="142">
   <si>
     <t xml:space="preserve">Part</t>
   </si>
@@ -118,6 +118,9 @@
     <t xml:space="preserve">Battery Holder, SMT, 12mm for CR1220</t>
   </si>
   <si>
+    <t xml:space="preserve">http://uk.farnell.com/multicomp/ch291-1220lf/battery-holder-smt-12mm/dp/2064722</t>
+  </si>
+  <si>
     <t xml:space="preserve">IC1</t>
   </si>
   <si>
@@ -163,7 +166,7 @@
     <t xml:space="preserve">EBAY_PKG</t>
   </si>
   <si>
-    <t xml:space="preserve">Nixie tube high voltage module</t>
+    <t xml:space="preserve">Nixie tube high voltage module from ebay</t>
   </si>
   <si>
     <t xml:space="preserve">JP2</t>
@@ -295,6 +298,9 @@
     <t xml:space="preserve">Momentary Switch</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.sparkfun.com/products/8720</t>
+  </si>
+  <si>
     <t xml:space="preserve">S2</t>
   </si>
   <si>
@@ -307,7 +313,10 @@
     <t xml:space="preserve">TACTILE-PTH-SIDEEZ</t>
   </si>
   <si>
-    <t xml:space="preserve">Momentary Switch, Vertical</t>
+    <t xml:space="preserve">Right Angle Tactile Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/100pcs-6x6x5mm-Momentary-Tactile-Button/dp/B00E0KZS76</t>
   </si>
   <si>
     <t xml:space="preserve">S5</t>
@@ -431,6 +440,12 @@
   </si>
   <si>
     <t xml:space="preserve">not needed for current firmware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provided links are for examples only, you don’t have to buy from them</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rest of them can be easily found on mouser</t>
   </si>
 </sst>
 </file>
@@ -441,11 +456,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -463,46 +479,92 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b val="true"/>
+      <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
+      <i val="true"/>
       <sz val="10"/>
       <color rgb="FF808080"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF006600"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF996600"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFCC0000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -609,24 +671,56 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -640,6 +734,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -740,10 +838,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B62" activeCellId="0" sqref="B62"/>
+      <selection pane="topLeft" activeCell="F39" activeCellId="0" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1007,722 +1105,743 @@
       <c r="E15" s="0" t="s">
         <v>31</v>
       </c>
+      <c r="F15" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="0" t="s">
         <v>71</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>95</v>
+      <c r="E45" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="B48" s="0" t="s">
-        <v>103</v>
-      </c>
       <c r="C48" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>104</v>
-      </c>
       <c r="E49" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" s="0" t="s">
         <v>108</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F62" s="0" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F15" r:id="rId1" display="http://uk.farnell.com/multicomp/ch291-1220lf/battery-holder-smt-12mm/dp/2064722"/>
+    <hyperlink ref="F44" r:id="rId2" display="https://www.amazon.com/100pcs-6x6x5mm-Momentary-Tactile-Button/dp/B00E0KZS76"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/resources/clock_bom.xlsx
+++ b/resources/clock_bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="145">
   <si>
     <t xml:space="preserve">Part</t>
   </si>
@@ -446,6 +446,15 @@
   </si>
   <si>
     <t xml:space="preserve">rest of them can be easily found on mouser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M3 standoffs, nuts, and screws</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 each</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standoff length should be at least 2cm</t>
   </si>
 </sst>
 </file>
@@ -838,10 +847,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F39" activeCellId="0" sqref="F39"/>
+      <selection pane="topLeft" activeCell="E63" activeCellId="0" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1595,23 +1604,23 @@
         <v>97</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E46" s="0" t="s">
+      <c r="E46" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="2" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1835,6 +1844,19 @@
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F62" s="0" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="0" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
